--- a/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>30404</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20524</v>
+        <v>20215</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42789</v>
+        <v>42521</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05255380918096241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03547681083000557</v>
+        <v>0.03494192496445143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07396206232753827</v>
+        <v>0.07349918672252032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -762,19 +762,19 @@
         <v>32327</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23636</v>
+        <v>24604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42602</v>
+        <v>43077</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03939835232852701</v>
+        <v>0.03939835232852702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02880561882562902</v>
+        <v>0.02998514671580552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05192066140827222</v>
+        <v>0.05249969447244473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -783,19 +783,19 @@
         <v>62731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49784</v>
+        <v>48682</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77490</v>
+        <v>77693</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04483833511348078</v>
+        <v>0.04483833511348079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03558399466588053</v>
+        <v>0.03479619534589166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05538760451052079</v>
+        <v>0.05553283917549886</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>93723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75558</v>
+        <v>77663</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111860</v>
+        <v>111560</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1620027819996269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1306031677275224</v>
+        <v>0.1342422944832878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.193351765803869</v>
+        <v>0.1928334339716649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -833,19 +833,19 @@
         <v>120881</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105785</v>
+        <v>105271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137913</v>
+        <v>138923</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1473213890111202</v>
+        <v>0.1473213890111203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1289240781847103</v>
+        <v>0.1282974666076413</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1680790934423677</v>
+        <v>0.1693098803619004</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -854,19 +854,19 @@
         <v>214604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>191773</v>
+        <v>191761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>238806</v>
+        <v>238191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1533923697465275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.137073633676282</v>
+        <v>0.1370650991739404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1706912515403524</v>
+        <v>0.1702519368412972</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>334112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>309297</v>
+        <v>308926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>356592</v>
+        <v>355811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5775200838837398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5346259050632581</v>
+        <v>0.5339852378742346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6163773401100093</v>
+        <v>0.6150273848738139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>882</v>
@@ -904,19 +904,19 @@
         <v>504653</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>484446</v>
+        <v>482441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>528127</v>
+        <v>526644</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.615038621712354</v>
+        <v>0.6150386217123541</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5904110814017036</v>
+        <v>0.587967336537656</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6436468820329823</v>
+        <v>0.641838894321785</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1294</v>
@@ -925,19 +925,19 @@
         <v>838765</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>807483</v>
+        <v>806355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>869974</v>
+        <v>869916</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.599524132007155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5771640903997678</v>
+        <v>0.5763583221665394</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6218307817338324</v>
+        <v>0.6217894263697616</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>120290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102019</v>
+        <v>102043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141655</v>
+        <v>141291</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2079233249356711</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1763424718974186</v>
+        <v>0.1763838517540561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2448534547277159</v>
+        <v>0.2442238408400332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -975,19 +975,19 @@
         <v>162662</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145997</v>
+        <v>145029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181669</v>
+        <v>181498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1982416369479987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1779313460463665</v>
+        <v>0.1767515024338631</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2214060319213811</v>
+        <v>0.2211985002602192</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>425</v>
@@ -996,19 +996,19 @@
         <v>282951</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>256751</v>
+        <v>258825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>311632</v>
+        <v>312213</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2022451631328366</v>
+        <v>0.2022451631328367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1835175666249041</v>
+        <v>0.1850001575857829</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2227448712134604</v>
+        <v>0.2231600925860149</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>152554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>123261</v>
+        <v>125478</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>183560</v>
+        <v>182694</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06842551095344979</v>
+        <v>0.0684255109534498</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05528664698664312</v>
+        <v>0.05628105064363638</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08233294041586625</v>
+        <v>0.08194464915928407</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -1121,19 +1121,19 @@
         <v>124245</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>103881</v>
+        <v>103280</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>147216</v>
+        <v>146398</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05724860228625334</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04786544008546229</v>
+        <v>0.04758887619020333</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06783315454333022</v>
+        <v>0.06745635824168753</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>263</v>
@@ -1142,19 +1142,19 @@
         <v>276798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>243416</v>
+        <v>240477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>315420</v>
+        <v>316689</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0629122769892335</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05532498853263296</v>
+        <v>0.05465708880015522</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07169045646639689</v>
+        <v>0.07197895508457518</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>418953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>380259</v>
+        <v>377978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>465003</v>
+        <v>461716</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1879146031966846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1705592583939833</v>
+        <v>0.1695361519807771</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.208569903511589</v>
+        <v>0.2070952079565158</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>443</v>
@@ -1192,19 +1192,19 @@
         <v>344442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>313232</v>
+        <v>310723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>377016</v>
+        <v>380189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1587095376484256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1443289904815261</v>
+        <v>0.1431730252798061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1737190624637721</v>
+        <v>0.1751807863925455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>800</v>
@@ -1213,19 +1213,19 @@
         <v>763394</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>707916</v>
+        <v>714148</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>815597</v>
+        <v>817863</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.173508619923296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1608992325626664</v>
+        <v>0.1623157253528271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1853735169739962</v>
+        <v>0.1858886212734697</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>1210009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1153700</v>
+        <v>1151919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1264446</v>
+        <v>1263446</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5427304437694368</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.517473579566325</v>
+        <v>0.5166750174507133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.567147318214603</v>
+        <v>0.5666986881203467</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1702</v>
@@ -1263,19 +1263,19 @@
         <v>1256583</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1214799</v>
+        <v>1210204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1303987</v>
+        <v>1296293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5790001976243891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5597472218998324</v>
+        <v>0.55763001182885</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.600842704850547</v>
+        <v>0.5972974330730582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2823</v>
@@ -1284,19 +1284,19 @@
         <v>2466593</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2400185</v>
+        <v>2390620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2542748</v>
+        <v>2533735</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.560621225986685</v>
+        <v>0.5606212259866851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5455276450160637</v>
+        <v>0.5433537819038554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5779302028513323</v>
+        <v>0.5758816985397115</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>447969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>403705</v>
+        <v>403408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>493496</v>
+        <v>494925</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2009294420804289</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1810753986144883</v>
+        <v>0.1809421932191691</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2213498823052778</v>
+        <v>0.2219909086786453</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>631</v>
@@ -1334,19 +1334,19 @@
         <v>444995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>407174</v>
+        <v>410536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>479828</v>
+        <v>482580</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.205041662440932</v>
+        <v>0.2050416624409321</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.187614962372309</v>
+        <v>0.1891641762195428</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2210917958877813</v>
+        <v>0.2223602098591863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1024</v>
@@ -1355,19 +1355,19 @@
         <v>892964</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>836636</v>
+        <v>840432</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>947193</v>
+        <v>961556</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2029578771007854</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1901553104028458</v>
+        <v>0.1910181948622662</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2152834065136248</v>
+        <v>0.218547920516069</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>26616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17323</v>
+        <v>17299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39821</v>
+        <v>43337</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03740381546254694</v>
+        <v>0.03740381546254693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02434358605990332</v>
+        <v>0.02431014829340743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05596092353376064</v>
+        <v>0.06090158303457906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1480,19 +1480,19 @@
         <v>43772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32189</v>
+        <v>33195</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57675</v>
+        <v>59033</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05956332201957344</v>
+        <v>0.05956332201957343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04380146385405456</v>
+        <v>0.04517147361150551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07848289795667178</v>
+        <v>0.08033010683498062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -1501,19 +1501,19 @@
         <v>70388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55615</v>
+        <v>54372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89259</v>
+        <v>88592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04866196942433648</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03844876580481122</v>
+        <v>0.03758974950538966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06170864493291291</v>
+        <v>0.06124701586926408</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>123634</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>103077</v>
+        <v>101218</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>148222</v>
+        <v>148035</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1737446318888156</v>
+        <v>0.1737446318888155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1448553146790538</v>
+        <v>0.1422422970009334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2082981807578979</v>
+        <v>0.2080347997594304</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>139</v>
@@ -1551,19 +1551,19 @@
         <v>107137</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>89725</v>
+        <v>90595</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>125160</v>
+        <v>125050</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1457889312088581</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1220953111209159</v>
+        <v>0.1232795293540946</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1703144580799878</v>
+        <v>0.1701648487232473</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>254</v>
@@ -1572,19 +1572,19 @@
         <v>230771</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>204759</v>
+        <v>204542</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>258950</v>
+        <v>258646</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.159541717146345</v>
+        <v>0.1595417171463449</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1415586139752721</v>
+        <v>0.1414081846010417</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1790229155703004</v>
+        <v>0.1788125637111453</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>407750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>378256</v>
+        <v>376489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>435557</v>
+        <v>437067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5730151369226718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5315673620640338</v>
+        <v>0.529084182002327</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6120927956620145</v>
+        <v>0.6142150727744015</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>588</v>
@@ -1622,19 +1622,19 @@
         <v>422613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>398982</v>
+        <v>397996</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>448786</v>
+        <v>447349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5750804876619915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5429239972387324</v>
+        <v>0.5415824355715123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6106955448825284</v>
+        <v>0.6087403311335142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>985</v>
@@ -1643,19 +1643,19 @@
         <v>830364</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>790164</v>
+        <v>794594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>863473</v>
+        <v>867822</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5740644399181389</v>
+        <v>0.5740644399181387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5462730191998564</v>
+        <v>0.5493351638025579</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5969541255695955</v>
+        <v>0.5999608310866315</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>153586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129549</v>
+        <v>130089</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176962</v>
+        <v>177433</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2158364157259657</v>
+        <v>0.2158364157259656</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1820561057075482</v>
+        <v>0.1828154260660611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2486862881087744</v>
+        <v>0.2493477221490491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>225</v>
@@ -1693,19 +1693,19 @@
         <v>161355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141401</v>
+        <v>142496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>181044</v>
+        <v>182721</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2195672591095768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.192414714904505</v>
+        <v>0.1939047479015566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2463592955594616</v>
+        <v>0.2486409367043272</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>371</v>
@@ -1714,19 +1714,19 @@
         <v>314941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283653</v>
+        <v>283501</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347583</v>
+        <v>347510</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2177318735111798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1961007749967334</v>
+        <v>0.1959956876819871</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2402986252584224</v>
+        <v>0.2402479543332694</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>209574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>181137</v>
+        <v>179043</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249187</v>
+        <v>242605</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05954470797610883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05146525540588547</v>
+        <v>0.05087014843065998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07079983615590052</v>
+        <v>0.06892969732817623</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>245</v>
@@ -1839,19 +1839,19 @@
         <v>200344</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175059</v>
+        <v>175850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230476</v>
+        <v>231611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05377392010369509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04698744581239519</v>
+        <v>0.04719976623358291</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06186176187660586</v>
+        <v>0.06216641701712866</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>418</v>
@@ -1860,19 +1860,19 @@
         <v>409917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>370545</v>
+        <v>375164</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>456152</v>
+        <v>455008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05657725039365657</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05114307874744471</v>
+        <v>0.0517805728610084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06295869563558822</v>
+        <v>0.06280074361139289</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>636311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>586549</v>
+        <v>587000</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>688488</v>
+        <v>691916</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1807905232576089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.166652238823047</v>
+        <v>0.1667802783456708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1956153858098724</v>
+        <v>0.1965894305665663</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>786</v>
@@ -1910,19 +1910,19 @@
         <v>572459</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>530340</v>
+        <v>530176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>611801</v>
+        <v>614320</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.153652910539649</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1423479016812184</v>
+        <v>0.1423037022946707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1642125708447051</v>
+        <v>0.1648887384036352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1370</v>
@@ -1931,19 +1931,19 @@
         <v>1208770</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1139826</v>
+        <v>1145784</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1273830</v>
+        <v>1275090</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1668358057372298</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1573200777182686</v>
+        <v>0.1581424459496036</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1758155450584837</v>
+        <v>0.1759893946971199</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>1951872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1882462</v>
+        <v>1884735</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2013326</v>
+        <v>2020736</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5545718501111705</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5348509346937748</v>
+        <v>0.5354968030908702</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5720324845084627</v>
+        <v>0.5741378435010703</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3172</v>
@@ -1981,19 +1981,19 @@
         <v>2183850</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2129533</v>
+        <v>2127579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2235512</v>
+        <v>2237005</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.586163977062597</v>
+        <v>0.5861639770625972</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.571584885980833</v>
+        <v>0.5710603296779787</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6000304253872054</v>
+        <v>0.6004312107792533</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5102</v>
@@ -2002,19 +2002,19 @@
         <v>4135722</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4049737</v>
+        <v>4055700</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4217950</v>
+        <v>4217739</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5708171702893654</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.558949490242316</v>
+        <v>0.5597724947689535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5821664101292053</v>
+        <v>0.5821372920218697</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>721845</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>670347</v>
+        <v>668887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>782161</v>
+        <v>778407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2050929186551117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1904611386965169</v>
+        <v>0.1900463672145618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2222299888633399</v>
+        <v>0.2211633949512138</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1144</v>
@@ -2052,19 +2052,19 @@
         <v>769011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>726895</v>
+        <v>727254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>815144</v>
+        <v>813189</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2064091922940589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1951047495380973</v>
+        <v>0.1952011849422313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2187917010387102</v>
+        <v>0.2182669110884752</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1820</v>
@@ -2073,19 +2073,19 @@
         <v>1490857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1420806</v>
+        <v>1421237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1562562</v>
+        <v>1559281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2057697735797482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1961013845728534</v>
+        <v>0.1961607942403669</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2156667052357382</v>
+        <v>0.2152138365783195</v>
       </c>
     </row>
     <row r="23">
